--- a/Sample Recordings/Recording Similarity Testing for Threshold.xlsx
+++ b/Sample Recordings/Recording Similarity Testing for Threshold.xlsx
@@ -1,21 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothy B\team-21\Sample Recordings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="16010" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+  <si>
+    <t>Appa</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Carrot 1</t>
+  </si>
+  <si>
+    <t>Carrot 2</t>
+  </si>
+  <si>
+    <t>dog 1</t>
+  </si>
+  <si>
+    <t>dog 2</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>monkey long</t>
+  </si>
+  <si>
+    <t>monkay</t>
+  </si>
+  <si>
+    <t>tiger 2</t>
+  </si>
+  <si>
+    <t>tiger long</t>
+  </si>
+  <si>
+    <t>tiger not good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zebra </t>
+  </si>
+  <si>
+    <t>zebra 2</t>
+  </si>
+  <si>
+    <t>monkey good 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,8 +110,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -66,39 +145,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,177 +256,602 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+      <c r="D2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.63E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.06</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>0.06</v>
+      </c>
+      <c r="J2">
+        <v>0.05</v>
+      </c>
+      <c r="K2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M2">
+        <v>0.03</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.04</v>
+      </c>
+      <c r="E3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.03</v>
+      </c>
+      <c r="H3">
+        <v>0.09</v>
+      </c>
+      <c r="I3">
+        <v>0.06</v>
+      </c>
+      <c r="J3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.03</v>
+      </c>
+      <c r="L3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.09</v>
+      </c>
+      <c r="N3">
+        <v>0.03</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.1212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.03</v>
+      </c>
+      <c r="H5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.08</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.06</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.12</v>
+      </c>
+      <c r="N5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.03</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.09</v>
+      </c>
+      <c r="L6">
+        <v>0.06</v>
+      </c>
+      <c r="M6">
+        <v>0.09</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.09</v>
+      </c>
+      <c r="J7">
+        <v>0.12</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.12</v>
+      </c>
+      <c r="M7">
+        <v>0.03</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.06</v>
+      </c>
+      <c r="P7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.22</v>
+      </c>
+      <c r="L8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.09</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.03</v>
+      </c>
+      <c r="M10">
+        <v>0.06</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.06</v>
+      </c>
+      <c r="P10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.03</v>
+      </c>
+      <c r="M11">
+        <v>0.09</v>
+      </c>
+      <c r="N11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.06</v>
+      </c>
+      <c r="P11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.06</v>
+      </c>
+      <c r="N12">
+        <v>0.03</v>
+      </c>
+      <c r="O12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.09</v>
+      </c>
+      <c r="P13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:P20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.09</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>